--- a/list.xlsx
+++ b/list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linjiajun/github/parse-excel-cli/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E56E1F-5235-C241-B3FB-491A2CAD9E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="14140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定投" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="452">
   <si>
     <r>
       <rPr>
@@ -2885,17 +2886,380 @@
       <t>Finsh</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMKEY</t>
+  </si>
+  <si>
+    <t>CKEY_1</t>
+  </si>
+  <si>
+    <t>CKEY_2</t>
+  </si>
+  <si>
+    <t>CKEY_3</t>
+  </si>
+  <si>
+    <t>CKEY_4</t>
+  </si>
+  <si>
+    <t>CKEY_5</t>
+  </si>
+  <si>
+    <t>CKEY_6</t>
+  </si>
+  <si>
+    <t>CKEY_7</t>
+  </si>
+  <si>
+    <t>CKEY_8</t>
+  </si>
+  <si>
+    <t>CKEY_9</t>
+  </si>
+  <si>
+    <t>CKEY_10</t>
+  </si>
+  <si>
+    <t>CKEY_11</t>
+  </si>
+  <si>
+    <t>CKEY_12</t>
+  </si>
+  <si>
+    <t>CKEY_13</t>
+  </si>
+  <si>
+    <t>CKEY_14</t>
+  </si>
+  <si>
+    <t>CKEY_15</t>
+  </si>
+  <si>
+    <t>CKEY_16</t>
+  </si>
+  <si>
+    <t>CKEY_17</t>
+  </si>
+  <si>
+    <t>CKEY_18</t>
+  </si>
+  <si>
+    <t>CKEY_19</t>
+  </si>
+  <si>
+    <t>CKEY_20</t>
+  </si>
+  <si>
+    <t>CKEY_21</t>
+  </si>
+  <si>
+    <t>CKEY_22</t>
+  </si>
+  <si>
+    <t>CKEY_23</t>
+  </si>
+  <si>
+    <t>CKEY_24</t>
+  </si>
+  <si>
+    <t>CKEY_25</t>
+  </si>
+  <si>
+    <t>CKEY_26</t>
+  </si>
+  <si>
+    <t>CKEY_27</t>
+  </si>
+  <si>
+    <t>CKEY_28</t>
+  </si>
+  <si>
+    <t>CKEY_29</t>
+  </si>
+  <si>
+    <t>CKEY_30</t>
+  </si>
+  <si>
+    <t>CKEY_31</t>
+  </si>
+  <si>
+    <t>CKEY_32</t>
+  </si>
+  <si>
+    <t>CKEY_33</t>
+  </si>
+  <si>
+    <t>CKEY_34</t>
+  </si>
+  <si>
+    <t>CKEY_35</t>
+  </si>
+  <si>
+    <t>CKEY_36</t>
+  </si>
+  <si>
+    <t>CKEY_37</t>
+  </si>
+  <si>
+    <t>CKEY_38</t>
+  </si>
+  <si>
+    <t>CKEY_39</t>
+  </si>
+  <si>
+    <t>CKEY_40</t>
+  </si>
+  <si>
+    <t>CKEY_41</t>
+  </si>
+  <si>
+    <t>CKEY_42</t>
+  </si>
+  <si>
+    <t>CKEY_43</t>
+  </si>
+  <si>
+    <t>CKEY_44</t>
+  </si>
+  <si>
+    <t>CKEY_45</t>
+  </si>
+  <si>
+    <t>CKEY_46</t>
+  </si>
+  <si>
+    <t>CKEY_47</t>
+  </si>
+  <si>
+    <t>CKEY_48</t>
+  </si>
+  <si>
+    <t>CKEY_49</t>
+  </si>
+  <si>
+    <t>CKEY_50</t>
+  </si>
+  <si>
+    <t>CKEY_51</t>
+  </si>
+  <si>
+    <t>CKEY_52</t>
+  </si>
+  <si>
+    <t>CKEY_53</t>
+  </si>
+  <si>
+    <t>CKEY_54</t>
+  </si>
+  <si>
+    <t>CKEY_55</t>
+  </si>
+  <si>
+    <t>CKEY_56</t>
+  </si>
+  <si>
+    <t>CKEY_57</t>
+  </si>
+  <si>
+    <t>CKEY_58</t>
+  </si>
+  <si>
+    <t>CKEY_59</t>
+  </si>
+  <si>
+    <t>CKEY_60</t>
+  </si>
+  <si>
+    <t>CKEY_61</t>
+  </si>
+  <si>
+    <t>CKEY_62</t>
+  </si>
+  <si>
+    <t>CKEY_63</t>
+  </si>
+  <si>
+    <t>CKEY_64</t>
+  </si>
+  <si>
+    <t>CKEY_65</t>
+  </si>
+  <si>
+    <t>CKEY_66</t>
+  </si>
+  <si>
+    <t>CKEY_67</t>
+  </si>
+  <si>
+    <t>CKEY_68</t>
+  </si>
+  <si>
+    <t>CKEY_69</t>
+  </si>
+  <si>
+    <t>CKEY_70</t>
+  </si>
+  <si>
+    <t>CKEY_71</t>
+  </si>
+  <si>
+    <t>CKEY_72</t>
+  </si>
+  <si>
+    <t>CKEY_73</t>
+  </si>
+  <si>
+    <t>CKEY_74</t>
+  </si>
+  <si>
+    <t>CKEY_75</t>
+  </si>
+  <si>
+    <t>CKEY_76</t>
+  </si>
+  <si>
+    <t>CKEY_77</t>
+  </si>
+  <si>
+    <t>CKEY_78</t>
+  </si>
+  <si>
+    <t>CKEY_79</t>
+  </si>
+  <si>
+    <t>CKEY_80</t>
+  </si>
+  <si>
+    <t>CKEY_81</t>
+  </si>
+  <si>
+    <t>CKEY_82</t>
+  </si>
+  <si>
+    <t>CKEY_83</t>
+  </si>
+  <si>
+    <t>CKEY_84</t>
+  </si>
+  <si>
+    <t>CKEY_85</t>
+  </si>
+  <si>
+    <t>CKEY_86</t>
+  </si>
+  <si>
+    <t>CKEY_87</t>
+  </si>
+  <si>
+    <t>CKEY_88</t>
+  </si>
+  <si>
+    <t>CKEY_89</t>
+  </si>
+  <si>
+    <t>CKEY_90</t>
+  </si>
+  <si>
+    <t>CKEY_91</t>
+  </si>
+  <si>
+    <t>CKEY_92</t>
+  </si>
+  <si>
+    <t>CKEY_93</t>
+  </si>
+  <si>
+    <t>CKEY_94</t>
+  </si>
+  <si>
+    <t>CKEY_95</t>
+  </si>
+  <si>
+    <t>CKEY_96</t>
+  </si>
+  <si>
+    <t>CKEY_97</t>
+  </si>
+  <si>
+    <t>CKEY_98</t>
+  </si>
+  <si>
+    <t>CKEY_99</t>
+  </si>
+  <si>
+    <t>CKEY_100</t>
+  </si>
+  <si>
+    <t>CKEY_101</t>
+  </si>
+  <si>
+    <t>CKEY_102</t>
+  </si>
+  <si>
+    <t>CKEY_103</t>
+  </si>
+  <si>
+    <t>CKEY_104</t>
+  </si>
+  <si>
+    <t>CKEY_105</t>
+  </si>
+  <si>
+    <t>CKEY_106</t>
+  </si>
+  <si>
+    <t>CKEY_107</t>
+  </si>
+  <si>
+    <t>CKEY_108</t>
+  </si>
+  <si>
+    <t>CKEY_109</t>
+  </si>
+  <si>
+    <t>CKEY_110</t>
+  </si>
+  <si>
+    <t>CKEY_111</t>
+  </si>
+  <si>
+    <t>CKEY_112</t>
+  </si>
+  <si>
+    <t>CKEY_113</t>
+  </si>
+  <si>
+    <t>CKEY_114</t>
+  </si>
+  <si>
+    <t>CKEY_115</t>
+  </si>
+  <si>
+    <t>CKEY_116</t>
+  </si>
+  <si>
+    <t>CKEY_117</t>
+  </si>
+  <si>
+    <t>CKEY_118</t>
+  </si>
+  <si>
+    <t>CKEY_119</t>
+  </si>
+  <si>
+    <t>CKEY_120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2907,7 +3271,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2991,7 +3355,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3290,19 +3654,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z186"/>
   <sheetViews>
     <sheetView topLeftCell="B106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A36" sqref="A1:C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="101.5" customWidth="1"/>
     <col min="2" max="2" width="71.5" customWidth="1"/>
     <col min="3" max="3" width="99" customWidth="1"/>
-    <col min="4" max="26" width="12.875" customWidth="1"/>
+    <col min="4" max="26" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1">
@@ -6807,7 +7171,7 @@
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
     </row>
-    <row r="104" spans="1:26" ht="16.5">
+    <row r="104" spans="1:26">
       <c r="A104" s="5" t="s">
         <v>300</v>
       </c>
@@ -6841,7 +7205,7 @@
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
     </row>
-    <row r="105" spans="1:26" ht="16.5">
+    <row r="105" spans="1:26">
       <c r="A105" s="5" t="s">
         <v>303</v>
       </c>
@@ -6875,7 +7239,7 @@
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
     </row>
-    <row r="106" spans="1:26" ht="16.5">
+    <row r="106" spans="1:26">
       <c r="A106" s="4" t="s">
         <v>306</v>
       </c>
@@ -6909,7 +7273,7 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
     </row>
-    <row r="107" spans="1:26" ht="16.5">
+    <row r="107" spans="1:26">
       <c r="A107" s="5" t="s">
         <v>309</v>
       </c>
@@ -6943,7 +7307,7 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
     </row>
-    <row r="108" spans="1:26" ht="16.5">
+    <row r="108" spans="1:26">
       <c r="A108" s="4" t="s">
         <v>312</v>
       </c>
@@ -7011,7 +7375,7 @@
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
     </row>
-    <row r="110" spans="1:26" ht="16.5">
+    <row r="110" spans="1:26">
       <c r="A110" s="4" t="s">
         <v>317</v>
       </c>
@@ -7045,7 +7409,7 @@
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
     </row>
-    <row r="111" spans="1:26" ht="16.5">
+    <row r="111" spans="1:26">
       <c r="A111" s="4" t="s">
         <v>320</v>
       </c>
@@ -7079,7 +7443,7 @@
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
     </row>
-    <row r="112" spans="1:26" ht="16.5">
+    <row r="112" spans="1:26">
       <c r="A112" s="4" t="s">
         <v>323</v>
       </c>
@@ -7113,7 +7477,7 @@
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
     </row>
-    <row r="113" spans="1:26" ht="16.5">
+    <row r="113" spans="1:26">
       <c r="A113" s="4" t="s">
         <v>326</v>
       </c>
@@ -7147,7 +7511,7 @@
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
     </row>
-    <row r="114" spans="1:26" ht="16.5">
+    <row r="114" spans="1:26">
       <c r="A114" s="4" t="s">
         <v>329</v>
       </c>
@@ -7181,7 +7545,7 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115" spans="1:26" ht="16.5">
+    <row r="115" spans="1:26">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -7209,7 +7573,7 @@
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
     </row>
-    <row r="116" spans="1:26" ht="16.5">
+    <row r="116" spans="1:26">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -7237,7 +7601,7 @@
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
     </row>
-    <row r="117" spans="1:26" ht="16.5">
+    <row r="117" spans="1:26">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -7265,7 +7629,7 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
     </row>
-    <row r="118" spans="1:26" ht="16.5">
+    <row r="118" spans="1:26">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -7293,7 +7657,7 @@
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
     </row>
-    <row r="119" spans="1:26" ht="16.5">
+    <row r="119" spans="1:26">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -7321,7 +7685,7 @@
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
     </row>
-    <row r="120" spans="1:26" ht="16.5">
+    <row r="120" spans="1:26">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -7349,7 +7713,7 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
     </row>
-    <row r="121" spans="1:26" ht="16.5">
+    <row r="121" spans="1:26">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -7377,7 +7741,7 @@
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
     </row>
-    <row r="122" spans="1:26" ht="16.5">
+    <row r="122" spans="1:26">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -7405,7 +7769,7 @@
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
     </row>
-    <row r="123" spans="1:26" ht="16.5">
+    <row r="123" spans="1:26">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -7433,7 +7797,7 @@
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
     </row>
-    <row r="124" spans="1:26" ht="16.5">
+    <row r="124" spans="1:26">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -7461,7 +7825,7 @@
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
     </row>
-    <row r="125" spans="1:26" ht="16.5">
+    <row r="125" spans="1:26">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -7489,7 +7853,7 @@
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
     </row>
-    <row r="126" spans="1:26" ht="16.5">
+    <row r="126" spans="1:26">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -7517,7 +7881,7 @@
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
     </row>
-    <row r="127" spans="1:26" ht="16.5">
+    <row r="127" spans="1:26">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -7545,7 +7909,7 @@
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
     </row>
-    <row r="128" spans="1:26" ht="16.5">
+    <row r="128" spans="1:26">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -7573,7 +7937,7 @@
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
     </row>
-    <row r="129" spans="1:26" ht="16.5">
+    <row r="129" spans="1:26">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -7601,7 +7965,7 @@
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
     </row>
-    <row r="130" spans="1:26" ht="16.5">
+    <row r="130" spans="1:26">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -7629,7 +7993,7 @@
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
     </row>
-    <row r="131" spans="1:26" ht="16.5">
+    <row r="131" spans="1:26">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -7657,7 +8021,7 @@
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
     </row>
-    <row r="132" spans="1:26" ht="16.5">
+    <row r="132" spans="1:26">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -7685,7 +8049,7 @@
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
     </row>
-    <row r="133" spans="1:26" ht="16.5">
+    <row r="133" spans="1:26">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -7713,7 +8077,7 @@
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
     </row>
-    <row r="134" spans="1:26" ht="16.5">
+    <row r="134" spans="1:26">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -7741,7 +8105,7 @@
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
     </row>
-    <row r="135" spans="1:26" ht="16.5">
+    <row r="135" spans="1:26">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -7769,7 +8133,7 @@
       <c r="Y135" s="7"/>
       <c r="Z135" s="7"/>
     </row>
-    <row r="136" spans="1:26" ht="16.5">
+    <row r="136" spans="1:26">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -7797,7 +8161,7 @@
       <c r="Y136" s="7"/>
       <c r="Z136" s="7"/>
     </row>
-    <row r="137" spans="1:26" ht="16.5">
+    <row r="137" spans="1:26">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -7825,7 +8189,7 @@
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
     </row>
-    <row r="138" spans="1:26" ht="16.5">
+    <row r="138" spans="1:26">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -7853,7 +8217,7 @@
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
     </row>
-    <row r="139" spans="1:26" ht="16.5">
+    <row r="139" spans="1:26">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -7881,7 +8245,7 @@
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
     </row>
-    <row r="140" spans="1:26" ht="16.5">
+    <row r="140" spans="1:26">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -7909,7 +8273,7 @@
       <c r="Y140" s="7"/>
       <c r="Z140" s="7"/>
     </row>
-    <row r="141" spans="1:26" ht="16.5">
+    <row r="141" spans="1:26">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -7937,7 +8301,7 @@
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
     </row>
-    <row r="142" spans="1:26" ht="16.5">
+    <row r="142" spans="1:26">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -7965,7 +8329,7 @@
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
     </row>
-    <row r="143" spans="1:26" ht="16.5">
+    <row r="143" spans="1:26">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -7993,7 +8357,7 @@
       <c r="Y143" s="7"/>
       <c r="Z143" s="7"/>
     </row>
-    <row r="144" spans="1:26" ht="16.5">
+    <row r="144" spans="1:26">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -8021,7 +8385,7 @@
       <c r="Y144" s="7"/>
       <c r="Z144" s="7"/>
     </row>
-    <row r="145" spans="1:26" ht="16.5">
+    <row r="145" spans="1:26">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -8049,7 +8413,7 @@
       <c r="Y145" s="7"/>
       <c r="Z145" s="7"/>
     </row>
-    <row r="146" spans="1:26" ht="16.5">
+    <row r="146" spans="1:26">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -8077,7 +8441,7 @@
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
     </row>
-    <row r="147" spans="1:26" ht="16.5">
+    <row r="147" spans="1:26">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -8105,7 +8469,7 @@
       <c r="Y147" s="7"/>
       <c r="Z147" s="7"/>
     </row>
-    <row r="148" spans="1:26" ht="16.5">
+    <row r="148" spans="1:26">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -8133,7 +8497,7 @@
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
     </row>
-    <row r="149" spans="1:26" ht="16.5">
+    <row r="149" spans="1:26">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -8161,7 +8525,7 @@
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
     </row>
-    <row r="150" spans="1:26" ht="16.5">
+    <row r="150" spans="1:26">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -8189,7 +8553,7 @@
       <c r="Y150" s="7"/>
       <c r="Z150" s="7"/>
     </row>
-    <row r="151" spans="1:26" ht="16.5">
+    <row r="151" spans="1:26">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -8217,7 +8581,7 @@
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
     </row>
-    <row r="152" spans="1:26" ht="16.5">
+    <row r="152" spans="1:26">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -8245,7 +8609,7 @@
       <c r="Y152" s="7"/>
       <c r="Z152" s="7"/>
     </row>
-    <row r="153" spans="1:26" ht="16.5">
+    <row r="153" spans="1:26">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -8273,7 +8637,7 @@
       <c r="Y153" s="7"/>
       <c r="Z153" s="7"/>
     </row>
-    <row r="154" spans="1:26" ht="16.5">
+    <row r="154" spans="1:26">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -8301,7 +8665,7 @@
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
     </row>
-    <row r="155" spans="1:26" ht="16.5">
+    <row r="155" spans="1:26">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -8329,7 +8693,7 @@
       <c r="Y155" s="7"/>
       <c r="Z155" s="7"/>
     </row>
-    <row r="156" spans="1:26" ht="16.5">
+    <row r="156" spans="1:26">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -8357,7 +8721,7 @@
       <c r="Y156" s="7"/>
       <c r="Z156" s="7"/>
     </row>
-    <row r="157" spans="1:26" ht="16.5">
+    <row r="157" spans="1:26">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -8385,7 +8749,7 @@
       <c r="Y157" s="7"/>
       <c r="Z157" s="7"/>
     </row>
-    <row r="158" spans="1:26" ht="16.5">
+    <row r="158" spans="1:26">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -8413,7 +8777,7 @@
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
     </row>
-    <row r="159" spans="1:26" ht="16.5">
+    <row r="159" spans="1:26">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -8441,7 +8805,7 @@
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
     </row>
-    <row r="160" spans="1:26" ht="16.5">
+    <row r="160" spans="1:26">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -8469,7 +8833,7 @@
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
     </row>
-    <row r="161" spans="1:26" ht="16.5">
+    <row r="161" spans="1:26">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -8497,7 +8861,7 @@
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
     </row>
-    <row r="162" spans="1:26" ht="16.5">
+    <row r="162" spans="1:26">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -8525,7 +8889,7 @@
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
     </row>
-    <row r="163" spans="1:26" ht="16.5">
+    <row r="163" spans="1:26">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -8553,7 +8917,7 @@
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
     </row>
-    <row r="164" spans="1:26" ht="16.5">
+    <row r="164" spans="1:26">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -8581,7 +8945,7 @@
       <c r="Y164" s="7"/>
       <c r="Z164" s="7"/>
     </row>
-    <row r="165" spans="1:26" ht="16.5">
+    <row r="165" spans="1:26">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -8609,7 +8973,7 @@
       <c r="Y165" s="7"/>
       <c r="Z165" s="7"/>
     </row>
-    <row r="166" spans="1:26" ht="16.5">
+    <row r="166" spans="1:26">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -8637,7 +9001,7 @@
       <c r="Y166" s="7"/>
       <c r="Z166" s="7"/>
     </row>
-    <row r="167" spans="1:26" ht="16.5">
+    <row r="167" spans="1:26">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -8665,7 +9029,7 @@
       <c r="Y167" s="7"/>
       <c r="Z167" s="7"/>
     </row>
-    <row r="168" spans="1:26" ht="16.5">
+    <row r="168" spans="1:26">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -8693,7 +9057,7 @@
       <c r="Y168" s="7"/>
       <c r="Z168" s="7"/>
     </row>
-    <row r="169" spans="1:26" ht="16.5">
+    <row r="169" spans="1:26">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -8721,7 +9085,7 @@
       <c r="Y169" s="7"/>
       <c r="Z169" s="7"/>
     </row>
-    <row r="170" spans="1:26" ht="16.5">
+    <row r="170" spans="1:26">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -8749,7 +9113,7 @@
       <c r="Y170" s="7"/>
       <c r="Z170" s="7"/>
     </row>
-    <row r="171" spans="1:26" ht="16.5">
+    <row r="171" spans="1:26">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -8777,7 +9141,7 @@
       <c r="Y171" s="7"/>
       <c r="Z171" s="7"/>
     </row>
-    <row r="172" spans="1:26" ht="16.5">
+    <row r="172" spans="1:26">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -8805,7 +9169,7 @@
       <c r="Y172" s="7"/>
       <c r="Z172" s="7"/>
     </row>
-    <row r="173" spans="1:26" ht="16.5">
+    <row r="173" spans="1:26">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -8833,7 +9197,7 @@
       <c r="Y173" s="7"/>
       <c r="Z173" s="7"/>
     </row>
-    <row r="174" spans="1:26" ht="16.5">
+    <row r="174" spans="1:26">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -8861,7 +9225,7 @@
       <c r="Y174" s="7"/>
       <c r="Z174" s="7"/>
     </row>
-    <row r="175" spans="1:26" ht="16.5">
+    <row r="175" spans="1:26">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -8889,7 +9253,7 @@
       <c r="Y175" s="7"/>
       <c r="Z175" s="7"/>
     </row>
-    <row r="176" spans="1:26" ht="16.5">
+    <row r="176" spans="1:26">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -8917,7 +9281,7 @@
       <c r="Y176" s="7"/>
       <c r="Z176" s="7"/>
     </row>
-    <row r="177" spans="1:26" ht="16.5">
+    <row r="177" spans="1:26">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -8945,7 +9309,7 @@
       <c r="Y177" s="7"/>
       <c r="Z177" s="7"/>
     </row>
-    <row r="178" spans="1:26" ht="16.5">
+    <row r="178" spans="1:26">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -8973,7 +9337,7 @@
       <c r="Y178" s="7"/>
       <c r="Z178" s="7"/>
     </row>
-    <row r="179" spans="1:26" ht="16.5">
+    <row r="179" spans="1:26">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -9001,7 +9365,7 @@
       <c r="Y179" s="7"/>
       <c r="Z179" s="7"/>
     </row>
-    <row r="180" spans="1:26" ht="16.5">
+    <row r="180" spans="1:26">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -9029,7 +9393,7 @@
       <c r="Y180" s="7"/>
       <c r="Z180" s="7"/>
     </row>
-    <row r="181" spans="1:26" ht="16.5">
+    <row r="181" spans="1:26">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -9057,7 +9421,7 @@
       <c r="Y181" s="7"/>
       <c r="Z181" s="7"/>
     </row>
-    <row r="182" spans="1:26" ht="16.5">
+    <row r="182" spans="1:26">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -9085,7 +9449,7 @@
       <c r="Y182" s="7"/>
       <c r="Z182" s="7"/>
     </row>
-    <row r="183" spans="1:26" ht="16.5">
+    <row r="183" spans="1:26">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -9113,7 +9477,7 @@
       <c r="Y183" s="7"/>
       <c r="Z183" s="7"/>
     </row>
-    <row r="184" spans="1:26" ht="16.5">
+    <row r="184" spans="1:26">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -9141,7 +9505,7 @@
       <c r="Y184" s="7"/>
       <c r="Z184" s="7"/>
     </row>
-    <row r="185" spans="1:26" ht="16.5">
+    <row r="185" spans="1:26">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -9169,7 +9533,7 @@
       <c r="Y185" s="7"/>
       <c r="Z185" s="7"/>
     </row>
-    <row r="186" spans="1:26" ht="16.5">
+    <row r="186" spans="1:26">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -9204,21 +9568,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="86.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="86.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:4" ht="34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9228,8 +9592,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5">
+      <c r="D1" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -9239,8 +9606,11 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="33">
+      <c r="D2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -9250,8 +9620,11 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="33">
+      <c r="D3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9261,8 +9634,11 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="49.5">
+      <c r="D4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -9272,8 +9648,11 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5">
+      <c r="D5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -9283,8 +9662,11 @@
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="33">
+      <c r="D6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -9294,8 +9676,11 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="49.5">
+      <c r="D7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -9305,8 +9690,11 @@
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="49.5">
+      <c r="D8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -9316,8 +9704,11 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="82.5">
+      <c r="D9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -9327,8 +9718,11 @@
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="409.5">
+      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -9338,8 +9732,11 @@
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -9349,8 +9746,11 @@
       <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="99">
+      <c r="D12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -9360,8 +9760,11 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="264">
+      <c r="D13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="85">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -9371,8 +9774,11 @@
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="33">
+      <c r="D14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -9382,8 +9788,11 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="49.5">
+      <c r="D15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -9393,8 +9802,11 @@
       <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="66">
+      <c r="D16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -9404,8 +9816,11 @@
       <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="49.5">
+      <c r="D17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -9415,8 +9830,11 @@
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="49.5">
+      <c r="D18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -9426,8 +9844,11 @@
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="49.5">
+      <c r="D19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
@@ -9437,8 +9858,11 @@
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="49.5">
+      <c r="D20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
@@ -9448,8 +9872,11 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="198">
+      <c r="D21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
@@ -9459,8 +9886,11 @@
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="66">
+      <c r="D22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -9470,8 +9900,11 @@
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="33">
+      <c r="D23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -9481,8 +9914,11 @@
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="313.5">
+      <c r="D24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
@@ -9492,8 +9928,11 @@
       <c r="C25" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="297">
+      <c r="D25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -9503,8 +9942,11 @@
       <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="214.5">
+      <c r="D26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -9514,8 +9956,11 @@
       <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="49.5">
+      <c r="D27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -9525,8 +9970,11 @@
       <c r="C28" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="409.5">
+      <c r="D28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="102">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
@@ -9536,8 +9984,11 @@
       <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="33">
+      <c r="D29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9547,8 +9998,11 @@
       <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="33">
+      <c r="D30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9558,8 +10012,11 @@
       <c r="C31" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="66">
+      <c r="D31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9569,8 +10026,11 @@
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5">
+      <c r="D32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
@@ -9580,8 +10040,11 @@
       <c r="C33" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5">
+      <c r="D33" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -9591,8 +10054,11 @@
       <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5">
+      <c r="D34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
@@ -9602,8 +10068,11 @@
       <c r="C35" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5">
+      <c r="D35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -9613,8 +10082,11 @@
       <c r="C36" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5">
+      <c r="D36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17">
       <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
@@ -9624,8 +10096,11 @@
       <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5">
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="5" t="s">
         <v>77</v>
       </c>
@@ -9635,8 +10110,11 @@
       <c r="C38" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5">
+      <c r="D38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -9646,8 +10124,11 @@
       <c r="C39" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5">
+      <c r="D39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17">
       <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
@@ -9657,8 +10138,11 @@
       <c r="C40" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5">
+      <c r="D40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="3" t="s">
         <v>83</v>
       </c>
@@ -9668,8 +10152,11 @@
       <c r="C41" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5">
+      <c r="D41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="3" t="s">
         <v>85</v>
       </c>
@@ -9679,8 +10166,11 @@
       <c r="C42" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5">
+      <c r="D42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="3" t="s">
         <v>87</v>
       </c>
@@ -9690,8 +10180,11 @@
       <c r="C43" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5">
+      <c r="D43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17">
       <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
@@ -9701,8 +10194,11 @@
       <c r="C44" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5">
+      <c r="D44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17">
       <c r="A45" s="3" t="s">
         <v>91</v>
       </c>
@@ -9712,8 +10208,11 @@
       <c r="C45" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5">
+      <c r="D45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="3" t="s">
         <v>93</v>
       </c>
@@ -9723,8 +10222,11 @@
       <c r="C46" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5">
+      <c r="D46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
@@ -9734,8 +10236,11 @@
       <c r="C47" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5">
+      <c r="D47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17">
       <c r="A48" s="3" t="s">
         <v>97</v>
       </c>
@@ -9745,8 +10250,11 @@
       <c r="C48" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5">
+      <c r="D48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17">
       <c r="A49" s="3" t="s">
         <v>99</v>
       </c>
@@ -9756,8 +10264,11 @@
       <c r="C49" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5">
+      <c r="D49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17">
       <c r="A50" s="3" t="s">
         <v>101</v>
       </c>
@@ -9767,8 +10278,11 @@
       <c r="C50" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5">
+      <c r="D50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
@@ -9778,8 +10292,11 @@
       <c r="C51" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5">
+      <c r="D51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17">
       <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
@@ -9789,8 +10306,11 @@
       <c r="C52" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5">
+      <c r="D52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17">
       <c r="A53" s="3" t="s">
         <v>107</v>
       </c>
@@ -9800,8 +10320,11 @@
       <c r="C53" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5">
+      <c r="D53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="3" t="s">
         <v>109</v>
       </c>
@@ -9811,8 +10334,11 @@
       <c r="C54" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5">
+      <c r="D54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="3" t="s">
         <v>111</v>
       </c>
@@ -9822,8 +10348,11 @@
       <c r="C55" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5">
+      <c r="D55" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17">
       <c r="A56" s="3" t="s">
         <v>113</v>
       </c>
@@ -9833,8 +10362,11 @@
       <c r="C56" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5">
+      <c r="D56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17">
       <c r="A57" s="3" t="s">
         <v>115</v>
       </c>
@@ -9844,8 +10376,11 @@
       <c r="C57" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5">
+      <c r="D57" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17">
       <c r="A58" s="3" t="s">
         <v>117</v>
       </c>
@@ -9855,8 +10390,11 @@
       <c r="C58" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5">
+      <c r="D58" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17">
       <c r="A59" s="3" t="s">
         <v>119</v>
       </c>
@@ -9866,8 +10404,11 @@
       <c r="C59" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5">
+      <c r="D59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="3" t="s">
         <v>121</v>
       </c>
@@ -9877,8 +10418,11 @@
       <c r="C60" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5">
+      <c r="D60" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17">
       <c r="A61" s="3" t="s">
         <v>123</v>
       </c>
@@ -9888,8 +10432,11 @@
       <c r="C61" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5">
+      <c r="D61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17">
       <c r="A62" s="3" t="s">
         <v>125</v>
       </c>
@@ -9899,8 +10446,11 @@
       <c r="C62" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5">
+      <c r="D62" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17">
       <c r="A63" s="3" t="s">
         <v>127</v>
       </c>
@@ -9910,8 +10460,11 @@
       <c r="C63" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5">
+      <c r="D63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17">
       <c r="A64" s="3" t="s">
         <v>129</v>
       </c>
@@ -9921,8 +10474,11 @@
       <c r="C64" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5">
+      <c r="D64" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17">
       <c r="A65" s="3" t="s">
         <v>131</v>
       </c>
@@ -9932,8 +10488,11 @@
       <c r="C65" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5">
+      <c r="D65" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17">
       <c r="A66" s="3" t="s">
         <v>133</v>
       </c>
@@ -9943,8 +10502,11 @@
       <c r="C66" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5">
+      <c r="D66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17">
       <c r="A67" s="3" t="s">
         <v>135</v>
       </c>
@@ -9954,8 +10516,11 @@
       <c r="C67" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="33">
+      <c r="D67" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17">
       <c r="A68" s="3" t="s">
         <v>137</v>
       </c>
@@ -9965,8 +10530,11 @@
       <c r="C68" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="49.5">
+      <c r="D68" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17">
       <c r="A69" s="3" t="s">
         <v>139</v>
       </c>
@@ -9976,8 +10544,11 @@
       <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="66">
+      <c r="D69" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17">
       <c r="A70" s="3" t="s">
         <v>35</v>
       </c>
@@ -9987,8 +10558,11 @@
       <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="49.5">
+      <c r="D70" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17">
       <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
@@ -9998,8 +10572,11 @@
       <c r="C71" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="132">
+      <c r="D71" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17">
       <c r="A72" s="3" t="s">
         <v>142</v>
       </c>
@@ -10009,8 +10586,11 @@
       <c r="C72" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5">
+      <c r="D72" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
         <v>144</v>
       </c>
@@ -10020,8 +10600,11 @@
       <c r="C73" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5">
+      <c r="D73" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
         <v>146</v>
       </c>
@@ -10031,8 +10614,11 @@
       <c r="C74" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5">
+      <c r="D74" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
         <v>148</v>
       </c>
@@ -10042,8 +10628,11 @@
       <c r="C75" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5">
+      <c r="D75" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
         <v>150</v>
       </c>
@@ -10053,8 +10642,11 @@
       <c r="C76" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5">
+      <c r="D76" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
         <v>152</v>
       </c>
@@ -10064,8 +10656,11 @@
       <c r="C77" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5">
+      <c r="D77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="5" t="s">
         <v>154</v>
       </c>
@@ -10075,8 +10670,11 @@
       <c r="C78" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5">
+      <c r="D78" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="5" t="s">
         <v>275</v>
       </c>
@@ -10086,8 +10684,11 @@
       <c r="C79" s="5" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5">
+      <c r="D79" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="5" t="s">
         <v>156</v>
       </c>
@@ -10097,8 +10698,11 @@
       <c r="C80" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5">
+      <c r="D80" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
         <v>158</v>
       </c>
@@ -10108,8 +10712,11 @@
       <c r="C81" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5">
+      <c r="D81" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
         <v>6</v>
       </c>
@@ -10119,8 +10726,11 @@
       <c r="C82" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5">
+      <c r="D82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="5" t="s">
         <v>161</v>
       </c>
@@ -10130,8 +10740,11 @@
       <c r="C83" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5">
+      <c r="D83" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="5" t="s">
         <v>163</v>
       </c>
@@ -10141,8 +10754,11 @@
       <c r="C84" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5">
+      <c r="D84" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="5" t="s">
         <v>165</v>
       </c>
@@ -10152,8 +10768,11 @@
       <c r="C85" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5">
+      <c r="D85" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="5" t="s">
         <v>167</v>
       </c>
@@ -10163,8 +10782,11 @@
       <c r="C86" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5">
+      <c r="D86" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="5" t="s">
         <v>169</v>
       </c>
@@ -10174,8 +10796,11 @@
       <c r="C87" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5">
+      <c r="D87" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="5" t="s">
         <v>171</v>
       </c>
@@ -10185,8 +10810,11 @@
       <c r="C88" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5">
+      <c r="D88" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
         <v>173</v>
       </c>
@@ -10196,8 +10824,11 @@
       <c r="C89" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.5">
+      <c r="D89" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="5" t="s">
         <v>175</v>
       </c>
@@ -10207,8 +10838,11 @@
       <c r="C90" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.5">
+      <c r="D90" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17">
       <c r="A91" s="3" t="s">
         <v>177</v>
       </c>
@@ -10218,8 +10852,11 @@
       <c r="C91" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="33">
+      <c r="D91" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17">
       <c r="A92" s="3" t="s">
         <v>179</v>
       </c>
@@ -10229,8 +10866,11 @@
       <c r="C92" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="99">
+      <c r="D92" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="34">
       <c r="A93" s="3" t="s">
         <v>181</v>
       </c>
@@ -10240,8 +10880,11 @@
       <c r="C93" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="16.5">
+      <c r="D93" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="5" t="s">
         <v>183</v>
       </c>
@@ -10251,8 +10894,11 @@
       <c r="C94" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="148.5">
+      <c r="D94" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17">
       <c r="A95" s="5" t="s">
         <v>185</v>
       </c>
@@ -10262,8 +10908,11 @@
       <c r="C95" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="16.5">
+      <c r="D95" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="5" t="s">
         <v>187</v>
       </c>
@@ -10273,8 +10922,11 @@
       <c r="C96" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="16.5">
+      <c r="D96" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="5" t="s">
         <v>189</v>
       </c>
@@ -10284,8 +10936,11 @@
       <c r="C97" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.5">
+      <c r="D97" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="5" t="s">
         <v>292</v>
       </c>
@@ -10295,8 +10950,11 @@
       <c r="C98" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="16.5">
+      <c r="D98" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="5" t="s">
         <v>191</v>
       </c>
@@ -10306,8 +10964,11 @@
       <c r="C99" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.5">
+      <c r="D99" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="5" t="s">
         <v>193</v>
       </c>
@@ -10317,8 +10978,11 @@
       <c r="C100" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.5">
+      <c r="D100" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="5" t="s">
         <v>195</v>
       </c>
@@ -10328,8 +10992,11 @@
       <c r="C101" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.5">
+      <c r="D101" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="5" t="s">
         <v>197</v>
       </c>
@@ -10339,8 +11006,11 @@
       <c r="C102" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="99">
+      <c r="D102" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="34">
       <c r="A103" s="3" t="s">
         <v>199</v>
       </c>
@@ -10350,8 +11020,11 @@
       <c r="C103" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.5">
+      <c r="D103" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="5" t="s">
         <v>300</v>
       </c>
@@ -10361,8 +11034,11 @@
       <c r="C104" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.5">
+      <c r="D104" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="5" t="s">
         <v>303</v>
       </c>
@@ -10372,8 +11048,11 @@
       <c r="C105" s="8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="16.5">
+      <c r="D105" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
         <v>306</v>
       </c>
@@ -10383,8 +11062,11 @@
       <c r="C106" s="8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="16.5">
+      <c r="D106" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="5" t="s">
         <v>309</v>
       </c>
@@ -10394,8 +11076,11 @@
       <c r="C107" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="16.5">
+      <c r="D107" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
         <v>312</v>
       </c>
@@ -10404,6 +11089,74 @@
       </c>
       <c r="C108" s="8" t="s">
         <v>314</v>
+      </c>
+      <c r="D108" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="D109" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="D110" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="D111" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="D112" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
